--- a/Outputs/univariateTests.xlsx
+++ b/Outputs/univariateTests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ADF</t>
   </si>
@@ -46,121 +46,73 @@
     <t>Kyrgyz Republic</t>
   </si>
   <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>Russian Federation</t>
   </si>
   <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>0.450</t>
-  </si>
-  <si>
-    <t>0.812</t>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.822</t>
   </si>
   <si>
     <t>0.329</t>
   </si>
   <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.030</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.480</t>
-  </si>
-  <si>
-    <t>0.857</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.856</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.117</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.182</t>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.022</t>
   </si>
   <si>
     <t>0.000</t>
   </si>
   <si>
-    <t>0.035</t>
+    <t>0.033</t>
   </si>
   <si>
     <t>0.003</t>
   </si>
   <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>0.153</t>
-  </si>
-  <si>
-    <t>0.540</t>
-  </si>
-  <si>
-    <t>0.745</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.168</t>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.279</t>
   </si>
 </sst>
 </file>
@@ -546,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,19 +529,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -597,19 +549,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -617,19 +569,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -637,19 +589,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -657,83 +609,23 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A9">
+  <conditionalFormatting sqref="A1:A6">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -743,12 +635,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F9">
+  <conditionalFormatting sqref="A1:F6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:F9">
+  <conditionalFormatting sqref="A6:F6">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
